--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scottish-my.sharepoint.com/personal/gatz_fuertesosorio_phs_scot/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{512E287B-316A-4895-BC91-B3F9410C3371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{512E287B-316A-4895-BC91-B3F9410C3371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1BC8C72-1077-4FB7-936B-A4B26B3F20CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3364966-A0D6-479E-9851-C132AB9E210D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{D3364966-A0D6-479E-9851-C132AB9E210D}"/>
   </bookViews>
   <sheets>
     <sheet name="countries" sheetId="1" r:id="rId1"/>
+    <sheet name="sales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>N</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -66,6 +64,18 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id_sales</t>
+  </si>
+  <si>
+    <t>id_country</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -119,6 +129,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -130,19 +208,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -434,25 +508,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -463,7 +537,7 @@
         <v>44562</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -474,7 +548,7 @@
         <v>44563</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -485,7 +559,7 @@
         <v>44564</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -496,7 +570,7 @@
         <v>44565</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -507,7 +581,7 @@
         <v>44566</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -518,7 +592,7 @@
         <v>44567</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -529,13 +603,108 @@
         <v>44568</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J12">
         <f>-K6</f>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE10BEA3-BE64-4E54-8D9A-035534773C5C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>30.75</v>
       </c>
     </row>
   </sheetData>
